--- a/firefox_testing/测试用例模板.xlsx
+++ b/firefox_testing/测试用例模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7728"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="370">
   <si>
     <t>项目名称：</t>
   </si>
@@ -1071,10 +1071,6 @@
   </si>
   <si>
     <t>imgs/Screenshot 2022-08-06 002238.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgs/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1450,6 +1446,14 @@
   </si>
   <si>
     <t>imgs/Screenshot 2022-08-06 013501.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgs/Screenshot 2022-08-07 211135.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载报错</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1880,30 +1884,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O46" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="200.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="200.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="162" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="235.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="235.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="108.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="108.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="27.6328125" style="2" customWidth="1"/>
     <col min="18" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="49.6328125" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1961,7 +1965,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2133,10 +2137,10 @@
         <v>44778</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>247</v>
+        <v>369</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>246</v>
@@ -2145,7 +2149,7 @@
         <v>44779</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2194,7 +2198,7 @@
         <v>44778</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>247</v>
@@ -2255,7 +2259,7 @@
         <v>44778</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>247</v>
@@ -2267,7 +2271,7 @@
         <v>44779</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2316,7 +2320,7 @@
         <v>44778</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>247</v>
@@ -2328,7 +2332,7 @@
         <v>44779</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2377,10 +2381,10 @@
         <v>44778</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>246</v>
@@ -2389,7 +2393,7 @@
         <v>44779</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2438,10 +2442,10 @@
         <v>44778</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>246</v>
@@ -2450,7 +2454,7 @@
         <v>44779</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2511,7 +2515,7 @@
         <v>44779</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2572,7 +2576,7 @@
         <v>44779</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2633,7 +2637,7 @@
         <v>44779</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2694,7 +2698,7 @@
         <v>44779</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2755,7 +2759,7 @@
         <v>44779</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2816,7 +2820,7 @@
         <v>44779</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2877,7 +2881,7 @@
         <v>44779</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2938,7 +2942,7 @@
         <v>44779</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2987,10 +2991,10 @@
         <v>44778</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S19" s="10" t="s">
         <v>246</v>
@@ -2999,7 +3003,7 @@
         <v>44779</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -3048,10 +3052,10 @@
         <v>44778</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>246</v>
@@ -3060,7 +3064,7 @@
         <v>44779</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -3121,7 +3125,7 @@
         <v>44779</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3182,7 +3186,7 @@
         <v>44779</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3243,7 +3247,7 @@
         <v>44779</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -3304,7 +3308,7 @@
         <v>44779</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3365,7 +3369,7 @@
         <v>44779</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3426,7 +3430,7 @@
         <v>44779</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3487,7 +3491,7 @@
         <v>44779</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3548,7 +3552,7 @@
         <v>44779</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3609,7 +3613,7 @@
         <v>44779</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3670,7 +3674,7 @@
         <v>44779</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3731,7 +3735,7 @@
         <v>44779</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3792,7 +3796,7 @@
         <v>44779</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3853,7 +3857,7 @@
         <v>44779</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3881,7 +3885,7 @@
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>238</v>
@@ -3914,7 +3918,7 @@
         <v>44779</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -3975,7 +3979,7 @@
         <v>44779</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -4003,7 +4007,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>238</v>
@@ -4036,7 +4040,7 @@
         <v>44779</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -4064,7 +4068,7 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>238</v>
@@ -4097,7 +4101,7 @@
         <v>44779</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -4121,7 +4125,7 @@
         <v>282</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="9" t="s">
@@ -4158,7 +4162,7 @@
         <v>44779</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -4182,7 +4186,7 @@
         <v>283</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="9" t="s">
@@ -4219,7 +4223,7 @@
         <v>44779</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -4243,7 +4247,7 @@
         <v>284</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="9" t="s">
@@ -4280,7 +4284,7 @@
         <v>44779</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4304,7 +4308,7 @@
         <v>285</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="9" t="s">
@@ -4341,7 +4345,7 @@
         <v>44779</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -4402,7 +4406,7 @@
         <v>44779</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -4463,7 +4467,7 @@
         <v>44779</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4524,7 +4528,7 @@
         <v>44779</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -4585,7 +4589,7 @@
         <v>44779</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -4646,7 +4650,7 @@
         <v>44779</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -4707,7 +4711,7 @@
         <v>44779</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -4768,7 +4772,7 @@
         <v>44779</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -4829,7 +4833,7 @@
         <v>44779</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -4890,7 +4894,7 @@
         <v>44779</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -4951,7 +4955,7 @@
         <v>44779</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -5012,7 +5016,7 @@
         <v>44779</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -5073,7 +5077,7 @@
         <v>44779</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -5134,7 +5138,7 @@
         <v>44779</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -5195,7 +5199,7 @@
         <v>44779</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
